--- a/public/excel_files/masterlist-2014-12-23.xlsx
+++ b/public/excel_files/masterlist-2014-12-23.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="ADMINISTRATION" sheetId="1" r:id="rId4"/>
-    <sheet name="DRAW AREA" sheetId="2" r:id="rId5"/>
+    <sheet name="DRAW AREA" sheetId="1" r:id="rId4"/>
+    <sheet name="FINANCE" sheetId="2" r:id="rId5"/>
+    <sheet name="OPERATION AUDIT" sheetId="3" r:id="rId6"/>
+    <sheet name="TREASURY" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -16,12 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>PAYROLL PERIOD:</t>
   </si>
   <si>
-    <t>2014-12-17-2014-12-31</t>
+    <t>2014-12-01-2014-12-16</t>
   </si>
   <si>
     <t>PAYROLL DATE:</t>
@@ -39,7 +41,7 @@
     <t>DEPARTMENT:</t>
   </si>
   <si>
-    <t>ADMINISTRATION</t>
+    <t>DRAW AREA</t>
   </si>
   <si>
     <t>HOLIDAY PAY</t>
@@ -146,52 +148,145 @@
     <t>AREA 3</t>
   </si>
   <si>
-    <t>Sancebuche</t>
-  </si>
-  <si>
-    <t>Daisy</t>
-  </si>
-  <si>
-    <t>Nubio</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVE ASSITANT</t>
-  </si>
-  <si>
-    <t>S0</t>
-  </si>
-  <si>
-    <t>5,827.50</t>
-  </si>
-  <si>
-    <t>5,714.50</t>
+    <t>Villegas</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Maloles</t>
+  </si>
+  <si>
+    <t>DRAW TEAM STAFF</t>
+  </si>
+  <si>
+    <t>ME3</t>
+  </si>
+  <si>
+    <t>4,075.00</t>
+  </si>
+  <si>
+    <t>3,775.00</t>
   </si>
   <si>
     <t>Grand Total:</t>
   </si>
   <si>
-    <t>DRAW AREA</t>
-  </si>
-  <si>
-    <t>Villegas</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Maloles</t>
-  </si>
-  <si>
-    <t>DRAW TEAM STAFF</t>
-  </si>
-  <si>
-    <t>ME3</t>
-  </si>
-  <si>
-    <t>4,650.00</t>
-  </si>
-  <si>
-    <t>4,500.00</t>
+    <t>FINANCE</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Clark Davies</t>
+  </si>
+  <si>
+    <t>Amazona</t>
+  </si>
+  <si>
+    <t>FINANCE STAFF/AUDIT</t>
+  </si>
+  <si>
+    <t>ME2</t>
+  </si>
+  <si>
+    <t>5,976.67</t>
+  </si>
+  <si>
+    <t>5,176.67</t>
+  </si>
+  <si>
+    <t>Molino</t>
+  </si>
+  <si>
+    <t>Mcneil</t>
+  </si>
+  <si>
+    <t>Narvacan</t>
+  </si>
+  <si>
+    <t>6,520.00</t>
+  </si>
+  <si>
+    <t>5,720.00</t>
+  </si>
+  <si>
+    <t>OPERATION AUDIT</t>
+  </si>
+  <si>
+    <t>Maliksi</t>
+  </si>
+  <si>
+    <t>Rodolfo</t>
+  </si>
+  <si>
+    <t>Mabilangan</t>
+  </si>
+  <si>
+    <t>DRIVER</t>
+  </si>
+  <si>
+    <t>ME6</t>
+  </si>
+  <si>
+    <t>TREASURY</t>
+  </si>
+  <si>
+    <t>CastaÑeda</t>
+  </si>
+  <si>
+    <t>Wilfredo</t>
+  </si>
+  <si>
+    <t>Pornellosa</t>
+  </si>
+  <si>
+    <t>ME4</t>
+  </si>
+  <si>
+    <t>Vila</t>
+  </si>
+  <si>
+    <t>Redentor</t>
+  </si>
+  <si>
+    <t>Pasiliao</t>
+  </si>
+  <si>
+    <t>TREASURY STAFF</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Sonny Boy</t>
+  </si>
+  <si>
+    <t>Manza</t>
+  </si>
+  <si>
+    <t>TREASURY CLERK</t>
+  </si>
+  <si>
+    <t>Macasadia</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>AREA COLLECTOR SUPERVISOR</t>
+  </si>
+  <si>
+    <t>Felicisimo</t>
+  </si>
+  <si>
+    <t>5,433.33</t>
+  </si>
+  <si>
+    <t>4,633.33</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1367,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="25">
-        <v>1700378</v>
+        <v>1700379</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>42</v>
@@ -1294,26 +1389,26 @@
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="44">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L10" s="44">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="M10" s="39">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N10" s="30">
         <v>0</v>
       </c>
       <c r="O10" s="30">
-        <v>247.5</v>
+        <v>0</v>
       </c>
       <c r="P10" s="30"/>
       <c r="Q10" s="30">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="R10" s="30">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="S10" s="31" t="s">
         <v>47</v>
@@ -1335,34 +1430,34 @@
       <c r="Z10" s="32"/>
       <c r="AA10" s="32"/>
       <c r="AB10" s="32">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC10" s="32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD10" s="32">
         <v>0</v>
       </c>
       <c r="AE10" s="32">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AF10" s="32">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AG10" s="32">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AH10" s="32">
+        <v>200</v>
+      </c>
+      <c r="AI10" s="32">
         <v>100</v>
       </c>
-      <c r="AI10" s="32">
-        <v>50</v>
-      </c>
       <c r="AJ10" s="32">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK10" s="33">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AL10" s="32" t="s">
         <v>48</v>
@@ -1515,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="49">
-        <v>247.5</v>
+        <v>0</v>
       </c>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
       <c r="R14" s="40"/>
       <c r="S14" s="50">
-        <v>5827.5</v>
+        <v>4075</v>
       </c>
       <c r="T14" s="50">
         <v>0</v>
@@ -1538,35 +1633,35 @@
       <c r="Z14" s="41"/>
       <c r="AA14" s="41"/>
       <c r="AB14" s="50">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC14" s="50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD14" s="41"/>
       <c r="AE14" s="50">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AF14" s="50">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AG14" s="50">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AH14" s="50">
+        <v>200</v>
+      </c>
+      <c r="AI14" s="50">
         <v>100</v>
       </c>
-      <c r="AI14" s="50">
-        <v>50</v>
-      </c>
       <c r="AJ14" s="50">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK14" s="51">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AL14" s="51">
-        <v>5714.5</v>
+        <v>3775</v>
       </c>
       <c r="AM14" s="37"/>
     </row>
@@ -1874,7 +1969,1144 @@
   </sheetPr>
   <dimension ref="A1:AM21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="AL15" sqref="AL15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="0" hidden="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.83203125" style="4"/>
+    <col min="4" max="4" width="8.83203125" style="4"/>
+    <col min="5" max="5" width="8.83203125" style="5"/>
+    <col min="6" max="6" width="8.83203125" style="4"/>
+    <col min="7" max="7" width="8.83203125" style="4"/>
+    <col min="9" max="9" width="8.83203125" style="6"/>
+    <col min="10" max="10" width="8.83203125" style="4"/>
+    <col min="11" max="11" width="8.83203125" style="45"/>
+    <col min="12" max="12" width="8.83203125" style="45"/>
+    <col min="13" max="13" width="8.83203125" style="45"/>
+    <col min="14" max="14" width="8.83203125" style="46"/>
+    <col min="15" max="15" width="8.83203125" style="46"/>
+    <col min="16" max="16" width="8.83203125" style="46"/>
+    <col min="17" max="17" width="8.83203125" style="46"/>
+    <col min="18" max="18" width="8.83203125" style="46"/>
+    <col min="19" max="19" width="8.83203125" style="47"/>
+    <col min="20" max="20" width="8.83203125" style="47"/>
+    <col min="21" max="21" width="8.83203125" style="47"/>
+    <col min="22" max="22" width="8.83203125" style="45"/>
+    <col min="23" max="23" width="0" hidden="true" customWidth="true" style="45"/>
+    <col min="24" max="24" width="0" hidden="true" customWidth="true" style="45"/>
+    <col min="25" max="25" width="0" hidden="true" customWidth="true" style="45"/>
+    <col min="26" max="26" width="0" hidden="true" customWidth="true" style="45"/>
+    <col min="27" max="27" width="0" hidden="true" customWidth="true" style="45"/>
+    <col min="28" max="28" width="8.83203125" style="45"/>
+    <col min="29" max="29" width="8.83203125" style="45"/>
+    <col min="30" max="30" width="8.83203125" style="45"/>
+    <col min="31" max="31" width="8.83203125" style="45"/>
+    <col min="32" max="32" width="8.83203125" style="45"/>
+    <col min="33" max="33" width="8.83203125" style="45"/>
+    <col min="34" max="34" width="8.83203125" style="45"/>
+    <col min="35" max="35" width="8.83203125" style="45"/>
+    <col min="36" max="36" width="8.83203125" style="45"/>
+    <col min="37" max="37" width="8.83203125" style="8"/>
+    <col min="38" max="38" width="8.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" customHeight="1" ht="15">
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+    </row>
+    <row r="2" spans="1:39" customHeight="1" ht="15">
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+    </row>
+    <row r="3" spans="1:39" customHeight="1" ht="12.75">
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+    </row>
+    <row r="4" spans="1:39" customHeight="1" ht="14.25">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+    </row>
+    <row r="7" spans="1:39" customHeight="1" ht="15">
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="10"/>
+    </row>
+    <row r="8" spans="1:39" customHeight="1" ht="12.75">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="13"/>
+    </row>
+    <row r="9" spans="1:39" customHeight="1" ht="24">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM9" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1700380</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="44">
+        <v>11000</v>
+      </c>
+      <c r="L10" s="44">
+        <v>5500</v>
+      </c>
+      <c r="M10" s="39">
+        <v>366.67</v>
+      </c>
+      <c r="N10" s="30">
+        <v>0</v>
+      </c>
+      <c r="O10" s="30">
+        <v>0</v>
+      </c>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30">
+        <v>366.67</v>
+      </c>
+      <c r="R10" s="30">
+        <v>110.001</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="31">
+        <v>0</v>
+      </c>
+      <c r="U10" s="31">
+        <v>0</v>
+      </c>
+      <c r="V10" s="27">
+        <v>0</v>
+      </c>
+      <c r="W10" s="32">
+        <v>0</v>
+      </c>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32">
+        <v>600</v>
+      </c>
+      <c r="AC10" s="32">
+        <v>300</v>
+      </c>
+      <c r="AD10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="32">
+        <v>900</v>
+      </c>
+      <c r="AF10" s="32">
+        <v>100</v>
+      </c>
+      <c r="AG10" s="32">
+        <v>100</v>
+      </c>
+      <c r="AH10" s="32">
+        <v>200</v>
+      </c>
+      <c r="AI10" s="32">
+        <v>100</v>
+      </c>
+      <c r="AJ10" s="32">
+        <v>100</v>
+      </c>
+      <c r="AK10" s="33">
+        <v>200</v>
+      </c>
+      <c r="AL10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM10" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="24">
+        <v>1700381</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="44">
+        <v>12000</v>
+      </c>
+      <c r="L11" s="44">
+        <v>6000</v>
+      </c>
+      <c r="M11" s="39">
+        <v>400</v>
+      </c>
+      <c r="N11" s="30">
+        <v>0</v>
+      </c>
+      <c r="O11" s="30">
+        <v>0</v>
+      </c>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30">
+        <v>400</v>
+      </c>
+      <c r="R11" s="30">
+        <v>120</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" s="31">
+        <v>0</v>
+      </c>
+      <c r="U11" s="31">
+        <v>0</v>
+      </c>
+      <c r="V11" s="27">
+        <v>0</v>
+      </c>
+      <c r="W11" s="32">
+        <v>0</v>
+      </c>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32">
+        <v>600</v>
+      </c>
+      <c r="AC11" s="32">
+        <v>300</v>
+      </c>
+      <c r="AD11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="32">
+        <v>900</v>
+      </c>
+      <c r="AF11" s="32">
+        <v>100</v>
+      </c>
+      <c r="AG11" s="32">
+        <v>100</v>
+      </c>
+      <c r="AH11" s="32">
+        <v>200</v>
+      </c>
+      <c r="AI11" s="32">
+        <v>100</v>
+      </c>
+      <c r="AJ11" s="32">
+        <v>100</v>
+      </c>
+      <c r="AK11" s="33">
+        <v>200</v>
+      </c>
+      <c r="AL11" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM11" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" customHeight="1" ht="14">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="34"/>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="37"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="37"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="49">
+        <v>0</v>
+      </c>
+      <c r="O15" s="49">
+        <v>0</v>
+      </c>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="50">
+        <v>12496.671</v>
+      </c>
+      <c r="T15" s="50">
+        <v>0</v>
+      </c>
+      <c r="U15" s="50">
+        <v>0</v>
+      </c>
+      <c r="V15" s="50">
+        <v>0</v>
+      </c>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="50">
+        <v>1200</v>
+      </c>
+      <c r="AC15" s="50">
+        <v>600</v>
+      </c>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="50">
+        <v>1800</v>
+      </c>
+      <c r="AF15" s="50">
+        <v>200</v>
+      </c>
+      <c r="AG15" s="50">
+        <v>200</v>
+      </c>
+      <c r="AH15" s="50">
+        <v>400</v>
+      </c>
+      <c r="AI15" s="50">
+        <v>200</v>
+      </c>
+      <c r="AJ15" s="50">
+        <v>200</v>
+      </c>
+      <c r="AK15" s="51">
+        <v>400</v>
+      </c>
+      <c r="AL15" s="51">
+        <v>10896.671</v>
+      </c>
+      <c r="AM15" s="37"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="37"/>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="37"/>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="37"/>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="37"/>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="37"/>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="AB8:AK8"/>
+    <mergeCell ref="A21:J21"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="1.1" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="0" orientation="portrait" scale="0" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:AM21"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
@@ -2145,7 +3377,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -2347,22 +3579,22 @@
         <v>41</v>
       </c>
       <c r="C10" s="25">
-        <v>1700379</v>
+        <v>1700382</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I10" s="28">
         <v>0</v>
@@ -2385,13 +3617,13 @@
       </c>
       <c r="P10" s="30"/>
       <c r="Q10" s="30">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="R10" s="30">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="S10" s="31" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="T10" s="31">
         <v>0</v>
@@ -2410,7 +3642,7 @@
       <c r="Z10" s="32"/>
       <c r="AA10" s="32"/>
       <c r="AB10" s="32">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC10" s="32">
         <v>50</v>
@@ -2419,28 +3651,28 @@
         <v>0</v>
       </c>
       <c r="AE10" s="32">
+        <v>150</v>
+      </c>
+      <c r="AF10" s="32">
         <v>100</v>
       </c>
-      <c r="AF10" s="32">
-        <v>50</v>
-      </c>
       <c r="AG10" s="32">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AH10" s="32">
+        <v>200</v>
+      </c>
+      <c r="AI10" s="32">
         <v>100</v>
       </c>
-      <c r="AI10" s="32">
-        <v>50</v>
-      </c>
       <c r="AJ10" s="32">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK10" s="33">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AL10" s="32" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AM10" s="34" t="s">
         <v>5</v>
@@ -2596,7 +3828,7 @@
       <c r="Q14" s="40"/>
       <c r="R14" s="40"/>
       <c r="S14" s="50">
-        <v>4650</v>
+        <v>4075</v>
       </c>
       <c r="T14" s="50">
         <v>0</v>
@@ -2613,35 +3845,35 @@
       <c r="Z14" s="41"/>
       <c r="AA14" s="41"/>
       <c r="AB14" s="50">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC14" s="50">
         <v>50</v>
       </c>
       <c r="AD14" s="41"/>
       <c r="AE14" s="50">
+        <v>150</v>
+      </c>
+      <c r="AF14" s="50">
         <v>100</v>
       </c>
-      <c r="AF14" s="50">
-        <v>50</v>
-      </c>
       <c r="AG14" s="50">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AH14" s="50">
+        <v>200</v>
+      </c>
+      <c r="AI14" s="50">
         <v>100</v>
       </c>
-      <c r="AI14" s="50">
-        <v>50</v>
-      </c>
       <c r="AJ14" s="50">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK14" s="51">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AL14" s="51">
-        <v>4500</v>
+        <v>3775</v>
       </c>
       <c r="AM14" s="37"/>
     </row>
@@ -2939,4 +4171,1327 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:AM21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="AL18" sqref="AL18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="0" hidden="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.83203125" style="4"/>
+    <col min="4" max="4" width="8.83203125" style="4"/>
+    <col min="5" max="5" width="8.83203125" style="5"/>
+    <col min="6" max="6" width="8.83203125" style="4"/>
+    <col min="7" max="7" width="8.83203125" style="4"/>
+    <col min="9" max="9" width="8.83203125" style="6"/>
+    <col min="10" max="10" width="8.83203125" style="4"/>
+    <col min="11" max="11" width="8.83203125" style="45"/>
+    <col min="12" max="12" width="8.83203125" style="45"/>
+    <col min="13" max="13" width="8.83203125" style="45"/>
+    <col min="14" max="14" width="8.83203125" style="46"/>
+    <col min="15" max="15" width="8.83203125" style="46"/>
+    <col min="16" max="16" width="8.83203125" style="46"/>
+    <col min="17" max="17" width="8.83203125" style="46"/>
+    <col min="18" max="18" width="8.83203125" style="46"/>
+    <col min="19" max="19" width="8.83203125" style="47"/>
+    <col min="20" max="20" width="8.83203125" style="47"/>
+    <col min="21" max="21" width="8.83203125" style="47"/>
+    <col min="22" max="22" width="8.83203125" style="45"/>
+    <col min="23" max="23" width="0" hidden="true" customWidth="true" style="45"/>
+    <col min="24" max="24" width="0" hidden="true" customWidth="true" style="45"/>
+    <col min="25" max="25" width="0" hidden="true" customWidth="true" style="45"/>
+    <col min="26" max="26" width="0" hidden="true" customWidth="true" style="45"/>
+    <col min="27" max="27" width="0" hidden="true" customWidth="true" style="45"/>
+    <col min="28" max="28" width="8.83203125" style="45"/>
+    <col min="29" max="29" width="8.83203125" style="45"/>
+    <col min="30" max="30" width="8.83203125" style="45"/>
+    <col min="31" max="31" width="8.83203125" style="45"/>
+    <col min="32" max="32" width="8.83203125" style="45"/>
+    <col min="33" max="33" width="8.83203125" style="45"/>
+    <col min="34" max="34" width="8.83203125" style="45"/>
+    <col min="35" max="35" width="8.83203125" style="45"/>
+    <col min="36" max="36" width="8.83203125" style="45"/>
+    <col min="37" max="37" width="8.83203125" style="8"/>
+    <col min="38" max="38" width="8.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" customHeight="1" ht="15">
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+    </row>
+    <row r="2" spans="1:39" customHeight="1" ht="15">
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+    </row>
+    <row r="3" spans="1:39" customHeight="1" ht="12.75">
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+    </row>
+    <row r="4" spans="1:39" customHeight="1" ht="14.25">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+    </row>
+    <row r="7" spans="1:39" customHeight="1" ht="15">
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="10"/>
+    </row>
+    <row r="8" spans="1:39" customHeight="1" ht="12.75">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="13"/>
+    </row>
+    <row r="9" spans="1:39" customHeight="1" ht="24">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM9" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1700383</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="44">
+        <v>7500</v>
+      </c>
+      <c r="L10" s="44">
+        <v>3750</v>
+      </c>
+      <c r="M10" s="39">
+        <v>250</v>
+      </c>
+      <c r="N10" s="30">
+        <v>0</v>
+      </c>
+      <c r="O10" s="30">
+        <v>0</v>
+      </c>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30">
+        <v>250</v>
+      </c>
+      <c r="R10" s="30">
+        <v>75</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="T10" s="31">
+        <v>0</v>
+      </c>
+      <c r="U10" s="31">
+        <v>0</v>
+      </c>
+      <c r="V10" s="27">
+        <v>0</v>
+      </c>
+      <c r="W10" s="32">
+        <v>0</v>
+      </c>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="32">
+        <v>50</v>
+      </c>
+      <c r="AD10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="32">
+        <v>150</v>
+      </c>
+      <c r="AF10" s="32">
+        <v>100</v>
+      </c>
+      <c r="AG10" s="32">
+        <v>100</v>
+      </c>
+      <c r="AH10" s="32">
+        <v>200</v>
+      </c>
+      <c r="AI10" s="32">
+        <v>100</v>
+      </c>
+      <c r="AJ10" s="32">
+        <v>100</v>
+      </c>
+      <c r="AK10" s="33">
+        <v>200</v>
+      </c>
+      <c r="AL10" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM10" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="24">
+        <v>1700384</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="44">
+        <v>7500</v>
+      </c>
+      <c r="L11" s="44">
+        <v>3750</v>
+      </c>
+      <c r="M11" s="39">
+        <v>250</v>
+      </c>
+      <c r="N11" s="30">
+        <v>0</v>
+      </c>
+      <c r="O11" s="30">
+        <v>0</v>
+      </c>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30">
+        <v>250</v>
+      </c>
+      <c r="R11" s="30">
+        <v>75</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" s="31">
+        <v>0</v>
+      </c>
+      <c r="U11" s="31">
+        <v>0</v>
+      </c>
+      <c r="V11" s="27">
+        <v>0</v>
+      </c>
+      <c r="W11" s="32">
+        <v>0</v>
+      </c>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32">
+        <v>100</v>
+      </c>
+      <c r="AC11" s="32">
+        <v>50</v>
+      </c>
+      <c r="AD11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="32">
+        <v>150</v>
+      </c>
+      <c r="AF11" s="32">
+        <v>100</v>
+      </c>
+      <c r="AG11" s="32">
+        <v>100</v>
+      </c>
+      <c r="AH11" s="32">
+        <v>200</v>
+      </c>
+      <c r="AI11" s="32">
+        <v>100</v>
+      </c>
+      <c r="AJ11" s="32">
+        <v>100</v>
+      </c>
+      <c r="AK11" s="33">
+        <v>200</v>
+      </c>
+      <c r="AL11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM11" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" customHeight="1" ht="14">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="35">
+        <v>1700385</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="28">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="44">
+        <v>11000</v>
+      </c>
+      <c r="L12" s="44">
+        <v>5500</v>
+      </c>
+      <c r="M12" s="39">
+        <v>366.67</v>
+      </c>
+      <c r="N12" s="30">
+        <v>0</v>
+      </c>
+      <c r="O12" s="30">
+        <v>0</v>
+      </c>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30">
+        <v>366.67</v>
+      </c>
+      <c r="R12" s="30">
+        <v>110.001</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" s="31">
+        <v>0</v>
+      </c>
+      <c r="U12" s="31">
+        <v>0</v>
+      </c>
+      <c r="V12" s="27">
+        <v>0</v>
+      </c>
+      <c r="W12" s="32">
+        <v>0</v>
+      </c>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32">
+        <v>600</v>
+      </c>
+      <c r="AC12" s="32">
+        <v>300</v>
+      </c>
+      <c r="AD12" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="32">
+        <v>900</v>
+      </c>
+      <c r="AF12" s="32">
+        <v>100</v>
+      </c>
+      <c r="AG12" s="32">
+        <v>100</v>
+      </c>
+      <c r="AH12" s="32">
+        <v>200</v>
+      </c>
+      <c r="AI12" s="32">
+        <v>100</v>
+      </c>
+      <c r="AJ12" s="32">
+        <v>100</v>
+      </c>
+      <c r="AK12" s="33">
+        <v>200</v>
+      </c>
+      <c r="AL12" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM12" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="37">
+        <v>1700386</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="40">
+        <v>0</v>
+      </c>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41">
+        <v>12000</v>
+      </c>
+      <c r="L13" s="41">
+        <v>6000</v>
+      </c>
+      <c r="M13" s="41">
+        <v>400</v>
+      </c>
+      <c r="N13" s="40">
+        <v>0</v>
+      </c>
+      <c r="O13" s="40">
+        <v>0</v>
+      </c>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40">
+        <v>400</v>
+      </c>
+      <c r="R13" s="40">
+        <v>120</v>
+      </c>
+      <c r="S13" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="42">
+        <v>0</v>
+      </c>
+      <c r="U13" s="42">
+        <v>0</v>
+      </c>
+      <c r="V13" s="41">
+        <v>0</v>
+      </c>
+      <c r="W13" s="41">
+        <v>0</v>
+      </c>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41">
+        <v>600</v>
+      </c>
+      <c r="AC13" s="41">
+        <v>300</v>
+      </c>
+      <c r="AD13" s="41">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="41">
+        <v>900</v>
+      </c>
+      <c r="AF13" s="41">
+        <v>100</v>
+      </c>
+      <c r="AG13" s="41">
+        <v>100</v>
+      </c>
+      <c r="AH13" s="41">
+        <v>200</v>
+      </c>
+      <c r="AI13" s="41">
+        <v>100</v>
+      </c>
+      <c r="AJ13" s="41">
+        <v>100</v>
+      </c>
+      <c r="AK13" s="39">
+        <v>200</v>
+      </c>
+      <c r="AL13" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM13" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="37">
+        <v>1700387</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="40">
+        <v>0</v>
+      </c>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41">
+        <v>10000</v>
+      </c>
+      <c r="L14" s="41">
+        <v>5000</v>
+      </c>
+      <c r="M14" s="41">
+        <v>333.33</v>
+      </c>
+      <c r="N14" s="40">
+        <v>0</v>
+      </c>
+      <c r="O14" s="40">
+        <v>0</v>
+      </c>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40">
+        <v>333.33</v>
+      </c>
+      <c r="R14" s="40">
+        <v>99.999</v>
+      </c>
+      <c r="S14" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="T14" s="42">
+        <v>0</v>
+      </c>
+      <c r="U14" s="42">
+        <v>0</v>
+      </c>
+      <c r="V14" s="41">
+        <v>0</v>
+      </c>
+      <c r="W14" s="41">
+        <v>0</v>
+      </c>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41">
+        <v>600</v>
+      </c>
+      <c r="AC14" s="41">
+        <v>300</v>
+      </c>
+      <c r="AD14" s="41">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="41">
+        <v>900</v>
+      </c>
+      <c r="AF14" s="41">
+        <v>100</v>
+      </c>
+      <c r="AG14" s="41">
+        <v>100</v>
+      </c>
+      <c r="AH14" s="41">
+        <v>200</v>
+      </c>
+      <c r="AI14" s="41">
+        <v>100</v>
+      </c>
+      <c r="AJ14" s="41">
+        <v>100</v>
+      </c>
+      <c r="AK14" s="39">
+        <v>200</v>
+      </c>
+      <c r="AL14" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM14" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="37"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="37"/>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="37"/>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="A18" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="49">
+        <v>0</v>
+      </c>
+      <c r="O18" s="49">
+        <v>0</v>
+      </c>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="50">
+        <v>26080</v>
+      </c>
+      <c r="T18" s="50">
+        <v>0</v>
+      </c>
+      <c r="U18" s="50">
+        <v>0</v>
+      </c>
+      <c r="V18" s="50">
+        <v>0</v>
+      </c>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="50">
+        <v>2000</v>
+      </c>
+      <c r="AC18" s="50">
+        <v>1000</v>
+      </c>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="50">
+        <v>3000</v>
+      </c>
+      <c r="AF18" s="50">
+        <v>500</v>
+      </c>
+      <c r="AG18" s="50">
+        <v>500</v>
+      </c>
+      <c r="AH18" s="50">
+        <v>1000</v>
+      </c>
+      <c r="AI18" s="50">
+        <v>500</v>
+      </c>
+      <c r="AJ18" s="50">
+        <v>500</v>
+      </c>
+      <c r="AK18" s="51">
+        <v>1000</v>
+      </c>
+      <c r="AL18" s="51">
+        <v>23080</v>
+      </c>
+      <c r="AM18" s="37"/>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="37"/>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="37"/>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="AB8:AK8"/>
+    <mergeCell ref="A21:J21"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="1.1" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="0" orientation="portrait" scale="0" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>